--- a/task 1.xlsx
+++ b/task 1.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\SAHIL-DA\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CDB36DA-2E4E-46DE-96C6-8C54C44DB739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E22FC50-15E4-401D-9315-330B28424FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4027BD44-A8C9-45F3-AF92-F3AE9469AAE9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4027BD44-A8C9-45F3-AF92-F3AE9469AAE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="58">
   <si>
     <t xml:space="preserve">Employee code </t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>vikash 120@gmail.com</t>
+  </si>
+  <si>
+    <t>Vansh</t>
   </si>
 </sst>
 </file>
@@ -272,7 +275,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -280,16 +283,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C2F9A6-9CA8-4F52-9C9D-B0E0134634A2}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,28 +640,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -651,29 +670,29 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="3">
         <f ca="1">RANDBETWEEN(15000,50000)</f>
-        <v>48110</v>
+        <v>42989</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F2" s="3" t="str">
-        <f>_xlfn.CONCAT(LOWER(B2),RIGHT(A2,3),"@gmail.com")</f>
-        <v>vansh 101@gmail.com</v>
+        <f>CONCATENATE(LOWER(B2),RIGHT(A2,LEN(A2)-FIND("p",A2)),"@gmail.com")</f>
+        <v>vansh101@gmail.com</v>
       </c>
       <c r="G2" s="3">
         <f ca="1">D2/10</f>
-        <v>4811</v>
+        <v>4298.8999999999996</v>
       </c>
       <c r="H2" s="3">
         <f ca="1">SUM(D2,G2)</f>
-        <v>52921</v>
+        <v>47287.9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -688,22 +707,22 @@
       </c>
       <c r="D3" s="3">
         <f t="shared" ref="D3:D21" ca="1" si="0">RANDBETWEEN(15000,50000)</f>
-        <v>35044</v>
+        <v>36785</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="3" t="str">
-        <f t="shared" ref="F3:F21" si="1">_xlfn.CONCAT(LOWER(B3),RIGHT(A3,3),"@gmail.com")</f>
+        <f>CONCATENATE(LOWER(B3),RIGHT(A3,LEN(A3)-FIND("p",A3)),"@gmail.com")</f>
         <v>sahil102@gmail.com</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G21" ca="1" si="2">D3/10</f>
-        <v>3504.4</v>
+        <f t="shared" ref="G3:G21" ca="1" si="1">D3/10</f>
+        <v>3678.5</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H21" ca="1" si="3">SUM(D3,G3)</f>
-        <v>38548.400000000001</v>
+        <f t="shared" ref="H3:H21" ca="1" si="2">SUM(D3,G3)</f>
+        <v>40463.5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -718,22 +737,22 @@
       </c>
       <c r="D4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>40283</v>
+        <v>32722</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F4" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F4:F20" si="3">CONCATENATE(LOWER(B4),RIGHT(A4,LEN(A4)-FIND("p",A4)),"@gmail.com")</f>
         <v>vishal 103@gmail.com</v>
       </c>
       <c r="G4" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>3272.2</v>
+      </c>
+      <c r="H4" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4028.3</v>
-      </c>
-      <c r="H4" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>44311.3</v>
+        <v>35994.199999999997</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -748,22 +767,22 @@
       </c>
       <c r="D5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>38237</v>
+        <v>29760</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F5" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>rohit104@gmail.com</v>
       </c>
       <c r="G5" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2976</v>
+      </c>
+      <c r="H5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3823.7</v>
-      </c>
-      <c r="H5" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>42060.7</v>
+        <v>32736</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -778,22 +797,22 @@
       </c>
       <c r="D6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>41179</v>
+        <v>38840</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F6" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>vikash 105@gmail.com</v>
       </c>
       <c r="G6" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>3884</v>
+      </c>
+      <c r="H6" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4117.8999999999996</v>
-      </c>
-      <c r="H6" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>45296.9</v>
+        <v>42724</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -808,22 +827,22 @@
       </c>
       <c r="D7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>22447</v>
+        <v>45148</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F7" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LOWER(B7),RIGHT(A7,LEN(A7)-FIND("p",A7)),"@gmail.com")</f>
         <v>vansh 106@gmail.com</v>
       </c>
       <c r="G7" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>4514.8</v>
+      </c>
+      <c r="H7" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2244.6999999999998</v>
-      </c>
-      <c r="H7" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>24691.7</v>
+        <v>49662.8</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -838,22 +857,22 @@
       </c>
       <c r="D8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>40346</v>
+        <v>29621</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F8" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>sahil107@gmail.com</v>
       </c>
       <c r="G8" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2962.1</v>
+      </c>
+      <c r="H8" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4034.6</v>
-      </c>
-      <c r="H8" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>44380.6</v>
+        <v>32583.1</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -868,22 +887,22 @@
       </c>
       <c r="D9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>29982</v>
+        <v>44826</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>vishal 108@gmail.com</v>
       </c>
       <c r="G9" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>4482.6000000000004</v>
+      </c>
+      <c r="H9" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2998.2</v>
-      </c>
-      <c r="H9" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>32980.199999999997</v>
+        <v>49308.6</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -898,22 +917,22 @@
       </c>
       <c r="D10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>35819</v>
+        <v>24031</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>rohit109@gmail.com</v>
       </c>
       <c r="G10" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2403.1</v>
+      </c>
+      <c r="H10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3581.9</v>
-      </c>
-      <c r="H10" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>39400.9</v>
+        <v>26434.1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -928,22 +947,22 @@
       </c>
       <c r="D11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43511</v>
+        <v>30494</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F11" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>vikash 110@gmail.com</v>
       </c>
       <c r="G11" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>3049.4</v>
+      </c>
+      <c r="H11" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4351.1000000000004</v>
-      </c>
-      <c r="H11" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>47862.1</v>
+        <v>33543.4</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -958,22 +977,22 @@
       </c>
       <c r="D12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>42578</v>
+        <v>18466</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>vansh 111@gmail.com</v>
       </c>
       <c r="G12" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>1846.6</v>
+      </c>
+      <c r="H12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4257.8</v>
-      </c>
-      <c r="H12" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>46835.8</v>
+        <v>20312.599999999999</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -988,22 +1007,22 @@
       </c>
       <c r="D13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>19775</v>
+        <v>48394</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F13" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>sahil112@gmail.com</v>
       </c>
       <c r="G13" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>4839.3999999999996</v>
+      </c>
+      <c r="H13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1977.5</v>
-      </c>
-      <c r="H13" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>21752.5</v>
+        <v>53233.4</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1018,22 +1037,22 @@
       </c>
       <c r="D14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>18503</v>
+        <v>34431</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>vishal 113@gmail.com</v>
       </c>
       <c r="G14" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>3443.1</v>
+      </c>
+      <c r="H14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1850.3</v>
-      </c>
-      <c r="H14" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>20353.3</v>
+        <v>37874.1</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1048,22 +1067,22 @@
       </c>
       <c r="D15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45095</v>
+        <v>48392</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F15" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>rohit114@gmail.com</v>
       </c>
       <c r="G15" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>4839.2</v>
+      </c>
+      <c r="H15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4509.5</v>
-      </c>
-      <c r="H15" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>49604.5</v>
+        <v>53231.199999999997</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1078,22 +1097,22 @@
       </c>
       <c r="D16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>45434</v>
+        <v>39564</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F16" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>vikash 115@gmail.com</v>
       </c>
       <c r="G16" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>3956.4</v>
+      </c>
+      <c r="H16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4543.3999999999996</v>
-      </c>
-      <c r="H16" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>49977.4</v>
+        <v>43520.4</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1108,22 +1127,22 @@
       </c>
       <c r="D17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>37696</v>
+        <v>16213</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F17" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>vansh 116@gmail.com</v>
       </c>
       <c r="G17" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>1621.3</v>
+      </c>
+      <c r="H17" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3769.6</v>
-      </c>
-      <c r="H17" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>41465.599999999999</v>
+        <v>17834.3</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1138,22 +1157,22 @@
       </c>
       <c r="D18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>32667</v>
+        <v>19415</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F18" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>sahil117@gmail.com</v>
       </c>
       <c r="G18" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>1941.5</v>
+      </c>
+      <c r="H18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3266.7</v>
-      </c>
-      <c r="H18" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>35933.699999999997</v>
+        <v>21356.5</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1168,22 +1187,22 @@
       </c>
       <c r="D19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>30078</v>
+        <v>48373</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F19" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>vishal 118@gmail.com</v>
       </c>
       <c r="G19" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>4837.3</v>
+      </c>
+      <c r="H19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3007.8</v>
-      </c>
-      <c r="H19" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>33085.800000000003</v>
+        <v>53210.3</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1198,22 +1217,22 @@
       </c>
       <c r="D20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>30543</v>
+        <v>42008</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F20" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>rohit119@gmail.com</v>
       </c>
       <c r="G20" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>4200.8</v>
+      </c>
+      <c r="H20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3054.3</v>
-      </c>
-      <c r="H20" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>33597.300000000003</v>
+        <v>46208.800000000003</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1228,22 +1247,22 @@
       </c>
       <c r="D21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>18749</v>
+        <v>34087</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F21" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(LOWER(B21),RIGHT(A21,LEN(A21)-FIND("p",A21)),"@gmail.com")</f>
         <v>vikash 120@gmail.com</v>
       </c>
       <c r="G21" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>3408.7</v>
+      </c>
+      <c r="H21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1874.9</v>
-      </c>
-      <c r="H21" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>20623.900000000001</v>
+        <v>37495.699999999997</v>
       </c>
     </row>
   </sheetData>
@@ -1256,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A361A97E-9400-4E0F-925F-D613090F85D7}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,422 +1286,422 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>42214</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>49361</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>30074</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>19872</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>40276</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>47473</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <v>29105</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <v>47040</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <v>24778</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="5">
         <v>39088</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="5">
         <v>21178</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="5">
         <v>30668</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="5">
         <v>47255</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="5">
         <v>32688</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="5">
         <v>33733</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="5">
         <v>47198</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="5">
         <v>35157</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="5">
         <v>41759</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="5">
         <v>24131</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="2">
         <v>49999</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="2" t="s">
         <v>56</v>
       </c>
     </row>
